--- a/update_modifier.xlsx
+++ b/update_modifier.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AOC-DEV 2\Desktop\Excel pattern modifier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AOC-DEV 2\AppData\Local\Temp\2c7e2dd3-5ebc-4e77-ba28-452f6317efa9\dav\content\modifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5A3CFD1-9F9F-4CD3-8B6A-B0197DA500C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EF5312-8064-45E6-823A-401E511ED98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20220" windowHeight="12960" xr2:uid="{469AF554-05D6-4D00-A1B1-0B48178CF925}"/>
+    <workbookView xWindow="22140" yWindow="2700" windowWidth="18840" windowHeight="9075" xr2:uid="{469AF554-05D6-4D00-A1B1-0B48178CF925}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <author>AOC-DEV 2</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{79A88926-581F-43E6-B692-06C825CDE951}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{79A88926-581F-43E6-B692-06C825CDE951}">
       <text>
         <r>
           <rPr>
@@ -55,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{05F055E0-CD13-49E4-8BB6-F981C06D8C50}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{05F055E0-CD13-49E4-8BB6-F981C06D8C50}">
       <text>
         <r>
           <rPr>
@@ -80,12 +80,55 @@
         </r>
       </text>
     </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{04EF33C8-A5BD-4964-87A0-17F48A14BC67}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>AOC-DEV 2:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DO NOT EDIT THIS COLUMN if you want to make a change in </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Swatch,Radio Buttons,Rectangle List, and Dropdown </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> okay???</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>product_id</t>
   </si>
@@ -117,41 +160,53 @@
     <t>swatch</t>
   </si>
   <si>
-    <t>amazing swatch</t>
-  </si>
-  <si>
-    <t>one color;two color+</t>
-  </si>
-  <si>
-    <t>[two color]price=45,weight=70</t>
-  </si>
-  <si>
-    <t>[one color]colors=#BABABA;[two color]colors=#CACACA,#2E2E2E</t>
-  </si>
-  <si>
-    <t>donate_one;donate_two+;donate_three</t>
-  </si>
-  <si>
-    <t>[donate_one,donate_three]price=45,weight=75;[donate_two]=price=200,weight=-200</t>
+    <t>modifier_id</t>
+  </si>
+  <si>
+    <t>upded swatchhh</t>
+  </si>
+  <si>
+    <t>niceee</t>
+  </si>
+  <si>
+    <t>donate_one;donate_twa+;donate_three</t>
+  </si>
+  <si>
+    <t>[donate_one,donate_three]price=45,weight=75;[donate_twa]=price=200,weight=-200</t>
+  </si>
+  <si>
+    <t>[donate_one]colors=#DEDEDE;[donate_twa]colors=#fae3b8;[donate_three]colors=#eaeaea,#bcbcbc,#4a4a4f</t>
+  </si>
+  <si>
+    <t>option_id</t>
   </si>
   <si>
     <t>text</t>
   </si>
   <si>
-    <t>my label text</t>
-  </si>
-  <si>
-    <t>updated swatch</t>
-  </si>
-  <si>
-    <t>[donate_one]colors=#DEDEDE;[donate_two]colors=#fae3b8;[donate_three]colors=#eaeaea,#bcbcbc,#4a4a4f</t>
+    <t>FAF</t>
+  </si>
+  <si>
+    <t>cad;three+</t>
+  </si>
+  <si>
+    <t>1055,1056</t>
+  </si>
+  <si>
+    <t>1057,1058,1059</t>
+  </si>
+  <si>
+    <t>[three]colors=#BABCBA;[cad]colors=#CACACA,#2E2E2E</t>
+  </si>
+  <si>
+    <t>[three];[cad]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,8 +227,15 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -183,6 +245,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -214,10 +282,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -532,120 +603,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F0F3FD-57F2-4D7E-BDBD-60CEFA67B121}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="52.42578125" customWidth="1"/>
-    <col min="6" max="6" width="82.28515625" customWidth="1"/>
-    <col min="7" max="7" width="99.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" customWidth="1"/>
-    <col min="9" max="9" width="90.85546875" customWidth="1"/>
+    <col min="1" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
+    <col min="6" max="6" width="52.42578125" customWidth="1"/>
+    <col min="7" max="7" width="82.28515625" customWidth="1"/>
+    <col min="8" max="8" width="99.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="10" max="10" width="90.85546875" customWidth="1"/>
+    <col min="11" max="11" width="41.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
+      <c r="K1" s="5" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>121</v>
-      </c>
-      <c r="B2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="2">
+        <v>589</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="b">
+      <c r="D2" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>114</v>
+      </c>
+      <c r="B3" s="2">
+        <v>590</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>120</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="b">
+    <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>114</v>
+      </c>
+      <c r="B4" s="2">
+        <v>587</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>119</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="b">
+      <c r="H4" s="1"/>
+      <c r="I4" s="2" t="b">
         <v>1</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4"/>
+      <c r="K4" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/update_modifier.xlsx
+++ b/update_modifier.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AOC-DEV 2\AppData\Local\Temp\2c7e2dd3-5ebc-4e77-ba28-452f6317efa9\dav\content\modifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EF5312-8064-45E6-823A-401E511ED98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5673F28-DBA8-4941-B330-B453C6BEA7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22140" yWindow="2700" windowWidth="18840" windowHeight="9075" xr2:uid="{469AF554-05D6-4D00-A1B1-0B48178CF925}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{469AF554-05D6-4D00-A1B1-0B48178CF925}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -172,9 +172,6 @@
     <t>donate_one;donate_twa+;donate_three</t>
   </si>
   <si>
-    <t>[donate_one,donate_three]price=45,weight=75;[donate_twa]=price=200,weight=-200</t>
-  </si>
-  <si>
     <t>[donate_one]colors=#DEDEDE;[donate_twa]colors=#fae3b8;[donate_three]colors=#eaeaea,#bcbcbc,#4a4a4f</t>
   </si>
   <si>
@@ -200,6 +197,9 @@
   </si>
   <si>
     <t>[three];[cad]</t>
+  </si>
+  <si>
+    <t>[donate_one,donate_three]price=45,weight=75;[donate_twa]=price=555,weight=-255</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F0F3FD-57F2-4D7E-BDBD-60CEFA67B121}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -655,7 +655,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -675,16 +675,16 @@
         <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -707,13 +707,13 @@
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="K3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -724,13 +724,13 @@
         <v>587</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="2" t="b">

--- a/update_modifier.xlsx
+++ b/update_modifier.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AOC-DEV 2\AppData\Local\Temp\2c7e2dd3-5ebc-4e77-ba28-452f6317efa9\dav\content\modifier\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5673F28-DBA8-4941-B330-B453C6BEA7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642A316A-6EAA-414C-83BE-20B98A1B33A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{469AF554-05D6-4D00-A1B1-0B48178CF925}"/>
   </bookViews>
@@ -169,12 +169,6 @@
     <t>niceee</t>
   </si>
   <si>
-    <t>donate_one;donate_twa+;donate_three</t>
-  </si>
-  <si>
-    <t>[donate_one]colors=#DEDEDE;[donate_twa]colors=#fae3b8;[donate_three]colors=#eaeaea,#bcbcbc,#4a4a4f</t>
-  </si>
-  <si>
     <t>option_id</t>
   </si>
   <si>
@@ -190,16 +184,22 @@
     <t>1055,1056</t>
   </si>
   <si>
-    <t>1057,1058,1059</t>
-  </si>
-  <si>
     <t>[three]colors=#BABCBA;[cad]colors=#CACACA,#2E2E2E</t>
   </si>
   <si>
-    <t>[three];[cad]</t>
-  </si>
-  <si>
-    <t>[donate_one,donate_three]price=45,weight=75;[donate_twa]=price=555,weight=-255</t>
+    <t>[three]price=2;[cad]weight=5</t>
+  </si>
+  <si>
+    <t>donate_twa+;donate_three</t>
+  </si>
+  <si>
+    <t>[donate_three]price=45,weight=75;[donate_twa]=price=555,weight=-255</t>
+  </si>
+  <si>
+    <t>[donate_twa]colors=#fae3b8;[donate_three]colors=#eaeaea,#bcbcbc,#4a4a4f</t>
+  </si>
+  <si>
+    <t>1058,1059</t>
   </si>
 </sst>
 </file>
@@ -605,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F0F3FD-57F2-4D7E-BDBD-60CEFA67B121}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -655,7 +655,7 @@
         <v>8</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -675,16 +675,16 @@
         <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="K2" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -704,16 +704,16 @@
         <v>12</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -724,13 +724,13 @@
         <v>587</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="b">
         <v>1</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="2" t="b">
